--- a/docs/project_plan.xlsx
+++ b/docs/project_plan.xlsx
@@ -15,9 +15,9 @@
     <sheet name="计划" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Interval">计划!$H$3</definedName>
+    <definedName name="Interval">计划!$K$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">计划!$4:$4</definedName>
-    <definedName name="StartTime">计划!$F$3</definedName>
+    <definedName name="StartTime">计划!$H$3</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>[日期]</t>
   </si>
@@ -234,6 +234,82 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ji'h</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <rPh sb="0" eb="1">
+      <t>kai'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'j</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期/日</t>
+    <rPh sb="0" eb="1">
+      <t>zhou'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launch对接</t>
+    <rPh sb="6" eb="7">
+      <t>dui'j</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面状态恢复</t>
+    <rPh sb="0" eb="1">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录</t>
+    <rPh sb="0" eb="1">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放</t>
+    <rPh sb="0" eb="1">
+      <t>bo'fang</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <rPh sb="0" eb="1">
+      <t>sou'suo</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -340,7 +416,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -391,6 +467,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,7 +507,63 @@
     <cellStyle name="标题 3" xfId="3" builtinId="18" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <name val="Verdana"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <name val="Verdana"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -526,10 +688,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Schedule" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Schedule" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstColumn" dxfId="25"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -544,27 +706,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule" displayName="Schedule" ref="B4:S52" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="标题 1">
-  <autoFilter ref="B4:S52"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="页面/功能" dataDxfId="17"/>
-    <tableColumn id="2" name="UI" dataDxfId="16"/>
-    <tableColumn id="3" name="交互逻辑" dataDxfId="15"/>
-    <tableColumn id="4" name="数据渲染" dataDxfId="14"/>
-    <tableColumn id="5" name="跳转逻辑" dataDxfId="13"/>
-    <tableColumn id="6" name="返回逻辑" dataDxfId="12"/>
-    <tableColumn id="7" name="数据缓存" dataDxfId="11"/>
-    <tableColumn id="8" name="图片裁剪" dataDxfId="10"/>
-    <tableColumn id="9" name="浏览上报" dataDxfId="9"/>
-    <tableColumn id="10" name="返回清除状态" dataDxfId="8"/>
-    <tableColumn id="11" name="播放上报" dataDxfId="7"/>
-    <tableColumn id="12" name="鉴权" dataDxfId="6"/>
-    <tableColumn id="13" name="订购" dataDxfId="5"/>
-    <tableColumn id="14" name="总结" dataDxfId="4"/>
-    <tableColumn id="15" name="打印信息" dataDxfId="3"/>
-    <tableColumn id="16" name="调试模式" dataDxfId="2"/>
-    <tableColumn id="17" name="代码定版" dataDxfId="1"/>
-    <tableColumn id="18" name="上线" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule" displayName="Schedule" ref="B4:W52" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="标题 1">
+  <autoFilter ref="B4:W52"/>
+  <tableColumns count="22">
+    <tableColumn id="1" name="页面/功能" dataDxfId="21"/>
+    <tableColumn id="23" name="开始时间" dataDxfId="1"/>
+    <tableColumn id="20" name="周期/日" dataDxfId="0"/>
+    <tableColumn id="2" name="UI" dataDxfId="20"/>
+    <tableColumn id="3" name="交互逻辑" dataDxfId="19"/>
+    <tableColumn id="4" name="数据渲染" dataDxfId="18"/>
+    <tableColumn id="5" name="跳转逻辑" dataDxfId="17"/>
+    <tableColumn id="6" name="返回逻辑" dataDxfId="16"/>
+    <tableColumn id="21" name="Launch对接" dataDxfId="3"/>
+    <tableColumn id="7" name="数据缓存" dataDxfId="15"/>
+    <tableColumn id="22" name="页面状态恢复" dataDxfId="2"/>
+    <tableColumn id="8" name="图片裁剪" dataDxfId="14"/>
+    <tableColumn id="9" name="浏览上报" dataDxfId="13"/>
+    <tableColumn id="10" name="返回清除状态" dataDxfId="12"/>
+    <tableColumn id="11" name="播放上报" dataDxfId="11"/>
+    <tableColumn id="12" name="鉴权" dataDxfId="10"/>
+    <tableColumn id="13" name="订购" dataDxfId="9"/>
+    <tableColumn id="14" name="总结" dataDxfId="8"/>
+    <tableColumn id="15" name="打印信息" dataDxfId="7"/>
+    <tableColumn id="16" name="调试模式" dataDxfId="6"/>
+    <tableColumn id="17" name="代码定版" dataDxfId="5"/>
+    <tableColumn id="18" name="上线" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Schedule" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -782,27 +948,29 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S52"/>
+  <dimension ref="B1:W52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="19" width="14.6640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="11.1640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="23" customWidth="1"/>
+    <col min="5" max="23" width="14.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -814,32 +982,36 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="2:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="H3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -847,93 +1019,123 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="2:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="2:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="O4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="P4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="S4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="T4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="U4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="V4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="W4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="29" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:23" ht="29" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="22">
+        <v>43616</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -949,13 +1151,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -971,11 +1177,17 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -991,11 +1203,17 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1011,11 +1229,17 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1031,11 +1255,15 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="2:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1051,11 +1279,15 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1071,11 +1303,15 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1091,11 +1327,15 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1111,11 +1351,15 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+    </row>
+    <row r="15" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1131,11 +1375,15 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+    </row>
+    <row r="16" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1151,11 +1399,15 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
-    </row>
-    <row r="17" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+    </row>
+    <row r="17" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1171,11 +1423,15 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-    </row>
-    <row r="18" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1191,11 +1447,15 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+    </row>
+    <row r="19" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1211,11 +1471,15 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+    </row>
+    <row r="20" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1231,11 +1495,15 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1251,11 +1519,15 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1271,11 +1543,15 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1291,11 +1567,15 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+    </row>
+    <row r="24" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1311,11 +1591,15 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1331,11 +1615,15 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
-    </row>
-    <row r="26" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+    </row>
+    <row r="26" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -1351,11 +1639,15 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
-    </row>
-    <row r="27" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1371,11 +1663,15 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
-    </row>
-    <row r="28" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -1391,11 +1687,15 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+    </row>
+    <row r="29" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1411,11 +1711,15 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
-    </row>
-    <row r="30" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+    </row>
+    <row r="30" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -1431,11 +1735,15 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+    </row>
+    <row r="31" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -1451,11 +1759,15 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
-    </row>
-    <row r="32" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+    </row>
+    <row r="32" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -1471,11 +1783,15 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
-    </row>
-    <row r="33" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+    </row>
+    <row r="33" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -1491,11 +1807,15 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
-    </row>
-    <row r="34" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+    </row>
+    <row r="34" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -1511,11 +1831,15 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
-    </row>
-    <row r="35" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+    </row>
+    <row r="35" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -1531,11 +1855,15 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
-    </row>
-    <row r="36" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+    </row>
+    <row r="36" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -1551,11 +1879,15 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
-    </row>
-    <row r="37" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+    </row>
+    <row r="37" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -1571,11 +1903,15 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
-    </row>
-    <row r="38" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+    </row>
+    <row r="38" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -1591,11 +1927,15 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
-    </row>
-    <row r="39" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+    </row>
+    <row r="39" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -1611,11 +1951,15 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
-    </row>
-    <row r="40" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+    </row>
+    <row r="40" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -1631,11 +1975,15 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
-    </row>
-    <row r="41" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+    </row>
+    <row r="41" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -1651,11 +1999,15 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
-    </row>
-    <row r="42" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+    </row>
+    <row r="42" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -1671,11 +2023,15 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
-    </row>
-    <row r="43" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+    </row>
+    <row r="43" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -1691,11 +2047,15 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
-    </row>
-    <row r="44" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+    </row>
+    <row r="44" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -1711,11 +2071,15 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
-    </row>
-    <row r="45" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+    </row>
+    <row r="45" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -1731,11 +2095,15 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
-    </row>
-    <row r="46" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+    </row>
+    <row r="46" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -1751,11 +2119,15 @@
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
-    </row>
-    <row r="47" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+    </row>
+    <row r="47" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -1771,11 +2143,15 @@
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
-    </row>
-    <row r="48" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+    </row>
+    <row r="48" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -1791,11 +2167,15 @@
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
-    </row>
-    <row r="49" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+    </row>
+    <row r="49" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -1811,11 +2191,15 @@
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
-    </row>
-    <row r="50" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+    </row>
+    <row r="50" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -1831,11 +2215,15 @@
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
-    </row>
-    <row r="51" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+    </row>
+    <row r="51" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -1851,11 +2239,15 @@
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
-    </row>
-    <row r="52" spans="2:19" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+    </row>
+    <row r="52" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -1871,6 +2263,10 @@
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/docs/project_plan.xlsx
+++ b/docs/project_plan.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>[日期]</t>
   </si>
@@ -337,6 +337,16 @@
     <t>记录</t>
     <rPh sb="0" eb="1">
       <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景/Logo动态</t>
+    <rPh sb="0" eb="1">
+      <t>bei'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong'tai</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -443,7 +453,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -497,6 +507,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -505,7 +518,10 @@
     <cellStyle name="标题 3" xfId="3" builtinId="18" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -686,10 +702,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Schedule" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Schedule" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="firstColumn" dxfId="25"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="firstColumn" dxfId="26"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -704,31 +720,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule" displayName="Schedule" ref="B4:W52" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="标题 1">
-  <autoFilter ref="B4:W52"/>
-  <tableColumns count="22">
-    <tableColumn id="1" name="页面/功能" dataDxfId="21"/>
-    <tableColumn id="20" name="开始时间" dataDxfId="20"/>
-    <tableColumn id="19" name="时间" dataDxfId="19"/>
-    <tableColumn id="2" name="UI" dataDxfId="18"/>
-    <tableColumn id="3" name="交互逻辑" dataDxfId="17"/>
-    <tableColumn id="4" name="数据渲染" dataDxfId="16"/>
-    <tableColumn id="5" name="跳转逻辑" dataDxfId="15"/>
-    <tableColumn id="6" name="返回逻辑" dataDxfId="14"/>
-    <tableColumn id="21" name="Launch对接" dataDxfId="13"/>
-    <tableColumn id="7" name="数据缓存" dataDxfId="12"/>
-    <tableColumn id="22" name="页面状态恢复" dataDxfId="11"/>
-    <tableColumn id="8" name="图片裁剪" dataDxfId="10"/>
-    <tableColumn id="9" name="浏览上报" dataDxfId="9"/>
-    <tableColumn id="10" name="返回清除状态" dataDxfId="8"/>
-    <tableColumn id="11" name="播放上报" dataDxfId="7"/>
-    <tableColumn id="12" name="鉴权" dataDxfId="6"/>
-    <tableColumn id="13" name="订购" dataDxfId="5"/>
-    <tableColumn id="14" name="总结" dataDxfId="4"/>
-    <tableColumn id="15" name="打印信息" dataDxfId="3"/>
-    <tableColumn id="16" name="调试模式" dataDxfId="2"/>
-    <tableColumn id="17" name="代码定版" dataDxfId="1"/>
-    <tableColumn id="18" name="上线" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule" displayName="Schedule" ref="B4:X52" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="标题 1">
+  <autoFilter ref="B4:X52"/>
+  <tableColumns count="23">
+    <tableColumn id="1" name="页面/功能" dataDxfId="22"/>
+    <tableColumn id="20" name="开始时间" dataDxfId="21"/>
+    <tableColumn id="19" name="时间" dataDxfId="20"/>
+    <tableColumn id="2" name="UI" dataDxfId="19"/>
+    <tableColumn id="3" name="交互逻辑" dataDxfId="18"/>
+    <tableColumn id="4" name="数据渲染" dataDxfId="17"/>
+    <tableColumn id="5" name="跳转逻辑" dataDxfId="16"/>
+    <tableColumn id="6" name="返回逻辑" dataDxfId="15"/>
+    <tableColumn id="21" name="Launch对接" dataDxfId="14"/>
+    <tableColumn id="23" name="背景/Logo动态" dataDxfId="0"/>
+    <tableColumn id="7" name="数据缓存" dataDxfId="13"/>
+    <tableColumn id="22" name="页面状态恢复" dataDxfId="12"/>
+    <tableColumn id="8" name="图片裁剪" dataDxfId="11"/>
+    <tableColumn id="9" name="浏览上报" dataDxfId="10"/>
+    <tableColumn id="10" name="返回清除状态" dataDxfId="9"/>
+    <tableColumn id="11" name="播放上报" dataDxfId="8"/>
+    <tableColumn id="12" name="鉴权" dataDxfId="7"/>
+    <tableColumn id="13" name="订购" dataDxfId="6"/>
+    <tableColumn id="14" name="总结" dataDxfId="5"/>
+    <tableColumn id="15" name="打印信息" dataDxfId="4"/>
+    <tableColumn id="16" name="调试模式" dataDxfId="3"/>
+    <tableColumn id="17" name="代码定版" dataDxfId="2"/>
+    <tableColumn id="18" name="上线" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Schedule" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -946,26 +963,26 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W52"/>
+  <dimension ref="B1:X52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="29" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="19" width="14.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="20" width="14.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="19.1640625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:24" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:24" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -982,18 +999,19 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
-    </row>
-    <row r="3" spans="2:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X2" s="17"/>
+    </row>
+    <row r="3" spans="2:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1023,9 +1041,10 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="2:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="2:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -1053,46 +1072,49 @@
         <v>30</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="X4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="29" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:24" ht="29" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1112,15 +1134,16 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-    </row>
-    <row r="6" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
@@ -1145,8 +1168,9 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1171,8 +1195,9 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-    </row>
-    <row r="8" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
@@ -1197,8 +1222,9 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1223,8 +1249,9 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="2:24" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1249,8 +1276,9 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="2:23" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="2:24" ht="29.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1275,8 +1303,9 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="16"/>
       <c r="D12" s="8"/>
@@ -1299,8 +1328,9 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="16"/>
       <c r="D13" s="8"/>
@@ -1323,8 +1353,9 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1349,8 +1380,9 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1373,8 +1405,9 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1397,8 +1430,9 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1421,8 +1455,9 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1445,8 +1480,9 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1469,8 +1505,9 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1493,8 +1530,9 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1517,8 +1555,9 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1541,8 +1580,9 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1565,8 +1605,9 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1589,8 +1630,9 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1613,8 +1655,9 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-    </row>
-    <row r="26" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1637,8 +1680,9 @@
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-    </row>
-    <row r="27" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1661,8 +1705,9 @@
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-    </row>
-    <row r="28" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1685,8 +1730,9 @@
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-    </row>
-    <row r="29" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1709,8 +1755,9 @@
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-    </row>
-    <row r="30" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1733,8 +1780,9 @@
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1757,8 +1805,9 @@
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1781,8 +1830,9 @@
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
-    </row>
-    <row r="33" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1805,8 +1855,9 @@
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-    </row>
-    <row r="34" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1829,8 +1880,9 @@
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
-    </row>
-    <row r="35" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1853,8 +1905,9 @@
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
-    </row>
-    <row r="36" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1877,8 +1930,9 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-    </row>
-    <row r="37" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1901,8 +1955,9 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-    </row>
-    <row r="38" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1925,8 +1980,9 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-    </row>
-    <row r="39" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1949,8 +2005,9 @@
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
-    </row>
-    <row r="40" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1973,8 +2030,9 @@
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
-    </row>
-    <row r="41" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1997,8 +2055,9 @@
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
-    </row>
-    <row r="42" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2021,8 +2080,9 @@
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
-    </row>
-    <row r="43" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2045,8 +2105,9 @@
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
-    </row>
-    <row r="44" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -2069,8 +2130,9 @@
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
-    </row>
-    <row r="45" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2093,8 +2155,9 @@
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
-    </row>
-    <row r="46" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -2117,8 +2180,9 @@
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
-    </row>
-    <row r="47" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2141,8 +2205,9 @@
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-    </row>
-    <row r="48" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2165,8 +2230,9 @@
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
-    </row>
-    <row r="49" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -2189,8 +2255,9 @@
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
-    </row>
-    <row r="50" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2213,8 +2280,9 @@
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
-    </row>
-    <row r="51" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2237,8 +2305,9 @@
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
-    </row>
-    <row r="52" spans="2:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X51" s="9"/>
+    </row>
+    <row r="52" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -2261,6 +2330,7 @@
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
